--- a/hardware/Datasheet/can_register.xlsx
+++ b/hardware/Datasheet/can_register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BL49\hardware\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4D5ACE-DFE3-4B13-AF88-6645EBAD150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA5BB53-091F-4C11-B268-B76336583EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{CFFB751D-006A-45C9-B1CE-C21F50573729}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>MOBNB3</t>
   </si>
@@ -230,12 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,10 +241,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -565,7 +564,7 @@
   <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,77 +573,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),1,1)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),2,1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),3,1)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),4,1)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),5,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),6,1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),7,1)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
         <f>MID(HEX2BIN($J$4,8),8,1)</f>
         <v>1</v>
       </c>
@@ -677,77 +675,73 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="str">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="str">
         <f>MID(HEX2BIN($J$9,8),2,1)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="str">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="str">
         <f>MID(HEX2BIN($J$9,8),4,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="3" t="str">
         <f>MID(HEX2BIN($J$9,8),5,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f>MID(HEX2BIN($J$9,8),6,1)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <f>MID(HEX2BIN($J$9,8),7,1)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="3" t="str">
         <f>MID(HEX2BIN($J$9,8),8,1)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -758,8 +752,6 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -770,92 +762,84 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),1,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),2,1)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),4,1)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="F14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),5,1)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),6,1)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="H14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),7,1)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="4" t="str">
+      <c r="I14" s="3" t="str">
         <f>MID(HEX2BIN($J$14,8),8,1)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -866,8 +850,6 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -878,94 +860,86 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="str">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),1,1)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),2,1)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),3,1)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),4,1)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="F19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),5,1)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="4" t="str">
+      <c r="G19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),6,1)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),7,1)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="4" t="str">
+      <c r="I19" s="3" t="str">
         <f>MID(HEX2BIN($J$19,8),8,1)</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -974,10 +948,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -986,89 +958,83 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="str">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>MID(HEX2BIN($J$24,8),2,1)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f>MID(HEX2BIN($J$24,8),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),3,1)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),4,1)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="str">
+      <c r="F24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),5,1)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="G24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),6,1)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="4" t="str">
+      <c r="H24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),7,1)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="str">
+      <c r="I24" s="3" t="str">
         <f>MID(HEX2BIN($J$24,8),8,1)</f>
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
